--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/ChuTruongDauTu/Export_DS_ChuTruongDauTu.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/ChuTruongDauTu/Export_DS_ChuTruongDauTu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\ChuTruongDauTu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web1\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\ChuTruongDauTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__Items__">Sheet1!$A$5:$H$5</definedName>
+    <definedName name="__Items__">Sheet1!$A$5:$H$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>BỘ QUỐC PHÒNG</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>&lt;#Items.sTenDuAn&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#Items.sRowTitle&gt;="";&lt;#Row height(hide)&gt;;&lt;#Items.sRowTitle&gt;)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,11 +158,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -170,20 +210,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,23 +533,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -528,41 +577,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -784,10 +834,21 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
